--- a/Hoadon/HDVao/7/HDDienTuDaCapMa.xlsx
+++ b/Hoadon/HDVao/7/HDDienTuDaCapMa.xlsx
@@ -193,15 +193,17 @@
     <col min="6" max="6" width="31.25" customWidth="true"/>
     <col min="7" max="7" width="31.25" customWidth="true"/>
     <col min="8" max="8" width="31.25" customWidth="true"/>
-    <col min="9" max="9" width="11.71875" customWidth="true"/>
-    <col min="10" max="10" width="11.71875" customWidth="true"/>
-    <col min="11" max="11" width="19.53125" customWidth="true"/>
-    <col min="12" max="12" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="31.25" customWidth="true"/>
+    <col min="10" max="10" width="31.25" customWidth="true"/>
+    <col min="11" max="11" width="11.71875" customWidth="true"/>
+    <col min="12" max="12" width="11.71875" customWidth="true"/>
     <col min="13" max="13" width="19.53125" customWidth="true"/>
-    <col min="14" max="14" width="11.71875" customWidth="true"/>
-    <col min="15" max="15" width="11.71875" customWidth="true"/>
-    <col min="16" max="16" width="19.53125" customWidth="true"/>
-    <col min="17" max="17" width="50.78125" customWidth="true"/>
+    <col min="14" max="14" width="19.53125" customWidth="true"/>
+    <col min="15" max="15" width="19.53125" customWidth="true"/>
+    <col min="16" max="16" width="11.71875" customWidth="true"/>
+    <col min="17" max="17" width="11.71875" customWidth="true"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
+    <col min="19" max="19" width="50.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -214,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 01/07/2025 đến ngày 10/07/2025</t>
+          <t>Từ ngày 15/07/2025 đến ngày 15/07/2025</t>
         </is>
       </c>
     </row>
@@ -261,54 +263,475 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
+          <t>MST người mua/MST người nhận hàng</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Tên người mua/Tên người nhận hàng</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
           <t>Tổng tiền chưa thuế</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thuế</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền chiết khấu thương mại</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền phí</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>Tổng tiền thanh toán</t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>Đơn vị tiền tệ</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>Tỷ giá</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>Trạng thái hóa đơn</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>Kết quả kiểm tra hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>C25TKH</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>0314709816</t>
+        </is>
+      </c>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH ONPOINT</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>Tầng 4, Tòa nhà AB, 27B Nguyễn Đình Chiểu, Phường Sài Gòn, TP Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>1637037.0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>130963.0</v>
+      </c>
+      <c r="M7" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="n">
+        <v>1768000.0</v>
+      </c>
+      <c r="P7" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q7" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R7" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S7" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>C25THL</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>7180</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>3501970854</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI HỮU LINH</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>Số 58/23C Nguyễn Gia Thiều, Phường Phước Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>1977311.0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>158184.0</v>
+      </c>
+      <c r="M8" s="13" t="n">
+        <v>29629.0</v>
+      </c>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="n">
+        <v>2135495.0</v>
+      </c>
+      <c r="P8" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q8" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R8" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S8" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>C25TYY</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>47766</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>3701760678</t>
+        </is>
+      </c>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ NUM BER ONE</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>219 Đại lộ Bình Dương, Phường Lái Thiêu, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT  VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>1.41306864E8</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>1.1304549E7</v>
+      </c>
+      <c r="M9" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="n">
+        <v>1.52611413E8</v>
+      </c>
+      <c r="P9" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q9" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R9" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S9" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>C25THP</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>3703134796</t>
+        </is>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ VẬN CHUYỂN TÂN HỢP PHÁT</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>Số 30/8C Đường Hai Bà Trưng, Khu Phố Đông Tác, Phường Dĩ An, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>1.37623E8</v>
+      </c>
+      <c r="L10" s="13" t="n">
+        <v>1.100984E7</v>
+      </c>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13" t="n">
+        <v>1.4863284E8</v>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q10" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R10" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S10" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>C25THP</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>15/07/2025</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
+        <is>
+          <t>3703134796</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ VẬN CHUYỂN TÂN HỢP PHÁT</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>Số 30/8C Đường Hai Bà Trưng, Khu Phố Đông Tác, Phường Dĩ An, Thành phố Hồ Chí Minh, Việt Nam</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>3502501171</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="inlineStr">
+        <is>
+          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+        </is>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>2.47630145E8</v>
+      </c>
+      <c r="L11" s="13" t="n">
+        <v>2.4763015E7</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13" t="n">
+        <v>2.7239316E8</v>
+      </c>
+      <c r="P11" s="7" t="inlineStr">
+        <is>
+          <t>VND</t>
+        </is>
+      </c>
+      <c r="Q11" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="R11" s="6" t="inlineStr">
+        <is>
+          <t>Hóa đơn mới</t>
+        </is>
+      </c>
+      <c r="S11" s="6" t="inlineStr">
+        <is>
+          <t>Đã cấp mã hóa đơn</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:S4"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Hoadon/HDVao/7/HDDienTuDaCapMa.xlsx
+++ b/Hoadon/HDVao/7/HDDienTuDaCapMa.xlsx
@@ -216,7 +216,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Từ ngày 15/07/2025 đến ngày 15/07/2025</t>
+          <t>Từ ngày 01/07/2025 đến ngày 24/07/2025</t>
         </is>
       </c>
     </row>
@@ -328,56 +328,56 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>C25TKH</t>
+          <t>C25TYY</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>847</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>22/07/2025</t>
         </is>
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>0314709816</t>
+          <t>3502238202</t>
         </is>
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH ONPOINT</t>
+          <t>CÔNG TY TRÁCH NHIỆM HỮU HẠN MÔ TÔ BMB</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>Tầng 4, Tòa nhà AB, 27B Nguyễn Đình Chiểu, Phường Sài Gòn, TP Hồ Chí Minh, Việt Nam</t>
+          <t>Số 01B Nguyễn Thái Học , Phường Tam Thắng, Thành phố Hồ Chí Minh, Việt Nam</t>
         </is>
       </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
-          <t>3502501171</t>
+          <t>3500898348</t>
         </is>
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+          <t>CÔNG TY TNHH DỊCH VỤ THUẾ SAO VIỆT</t>
         </is>
       </c>
       <c r="K7" s="13" t="n">
-        <v>1637037.0</v>
+        <v>1.6759259E7</v>
       </c>
       <c r="L7" s="13" t="n">
-        <v>130963.0</v>
+        <v>1340741.0</v>
       </c>
       <c r="M7" s="13" t="n">
         <v>0.0</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="13" t="n">
-        <v>1768000.0</v>
+        <v>1.81E7</v>
       </c>
       <c r="P7" s="7" t="inlineStr">
         <is>
@@ -411,56 +411,56 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>C25THL</t>
+          <t>C25TTP</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>718</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>15/07/2025</t>
+          <t>10/07/2025</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>3501970854</t>
+          <t>3502506317</t>
         </is>
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI HỮU LINH</t>
+          <t>CÔNG TY TNHH VPP TIẾN PHÁT</t>
         </is>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>Số 58/23C Nguyễn Gia Thiều, Phường Phước Thắng, Thành Phố Hồ Chí Minh, Việt Nam</t>
+          <t>190/3 Ba Cu, Phường Vũng Tàu, Thành phố Hồ Chí Minh, Việt Nam</t>
         </is>
       </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
-          <t>3502501171</t>
+          <t>3500898348</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
+          <t>CÔNG TY TNHH DỊCH VỤ THUẾ SAO VIỆT</t>
         </is>
       </c>
       <c r="K8" s="13" t="n">
-        <v>1977311.0</v>
+        <v>1861111.0</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>158184.0</v>
+        <v>148889.0</v>
       </c>
       <c r="M8" s="13" t="n">
-        <v>29629.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" s="13"/>
       <c r="O8" s="13" t="n">
-        <v>2135495.0</v>
+        <v>2010000.0</v>
       </c>
       <c r="P8" s="7" t="inlineStr">
         <is>
@@ -478,251 +478,6 @@
         </is>
       </c>
       <c r="S8" s="6" t="inlineStr">
-        <is>
-          <t>Đã cấp mã hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>C25TYY</t>
-        </is>
-      </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>47766</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>3701760678</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH SẢN XUẤT THƯƠNG MẠI DỊCH VỤ NUM BER ONE</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>219 Đại lộ Bình Dương, Phường Lái Thiêu, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>3502501171</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT  VŨNG TÀU</t>
-        </is>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>1.41306864E8</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>1.1304549E7</v>
-      </c>
-      <c r="M9" s="13" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="n">
-        <v>1.52611413E8</v>
-      </c>
-      <c r="P9" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="Q9" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="R9" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="S9" s="6" t="inlineStr">
-        <is>
-          <t>Đã cấp mã hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>C25THP</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>3150</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
-        <is>
-          <t>3703134796</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ VẬN CHUYỂN TÂN HỢP PHÁT</t>
-        </is>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>Số 30/8C Đường Hai Bà Trưng, Khu Phố Đông Tác, Phường Dĩ An, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>3502501171</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
-        </is>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>1.37623E8</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>1.100984E7</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13" t="n">
-        <v>1.4863284E8</v>
-      </c>
-      <c r="P10" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="Q10" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="R10" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="S10" s="6" t="inlineStr">
-        <is>
-          <t>Đã cấp mã hóa đơn</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>C25THP</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>3151</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>15/07/2025</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
-        <is>
-          <t>3703134796</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI DỊCH VỤ VẬN CHUYỂN TÂN HỢP PHÁT</t>
-        </is>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>Số 30/8C Đường Hai Bà Trưng, Khu Phố Đông Tác, Phường Dĩ An, Thành phố Hồ Chí Minh, Việt Nam</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>3502501171</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="inlineStr">
-        <is>
-          <t>CÔNG TY TNHH THƯƠNG MẠI PHÁT ĐẠT VŨNG TÀU</t>
-        </is>
-      </c>
-      <c r="K11" s="13" t="n">
-        <v>2.47630145E8</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>2.4763015E7</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13" t="n">
-        <v>2.7239316E8</v>
-      </c>
-      <c r="P11" s="7" t="inlineStr">
-        <is>
-          <t>VND</t>
-        </is>
-      </c>
-      <c r="Q11" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="R11" s="6" t="inlineStr">
-        <is>
-          <t>Hóa đơn mới</t>
-        </is>
-      </c>
-      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>Đã cấp mã hóa đơn</t>
         </is>
